--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4221.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4221.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Matthew Henry Cross</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3604</t>
+          <t>3604</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3611</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3613</t>
+          <t>3613</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1011,7 +1076,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3733</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1423,7 +1487,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1483,7 +1546,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1523,7 +1586,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>14/08/2016</t>
@@ -1531,7 +1593,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1571,7 +1633,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>16/08/2016</t>
@@ -1579,7 +1640,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1631,7 +1692,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1683,7 +1744,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1735,7 +1796,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1787,7 +1848,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1839,7 +1900,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1891,7 +1952,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1943,7 +2004,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4077</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1995,7 +2056,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2047,7 +2108,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4090</t>
+          <t>4090</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2099,7 +2160,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4091</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2151,7 +2212,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2203,7 +2264,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2255,7 +2316,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4118</t>
+          <t>4118</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2307,7 +2368,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4120</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2359,7 +2420,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2411,7 +2472,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4142</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2463,7 +2524,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4153</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2515,7 +2576,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2567,7 +2628,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2619,7 +2680,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2671,7 +2732,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2723,7 +2784,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2775,7 +2836,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2827,7 +2888,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4363</t>
+          <t>4363</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2879,7 +2940,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4364</t>
+          <t>4364</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2931,7 +2992,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4365</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2983,7 +3044,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4366</t>
+          <t>4366</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3035,7 +3096,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4381</t>
+          <t>4381</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3087,7 +3148,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3139,7 +3200,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3191,7 +3252,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4461</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3243,7 +3304,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4462</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3295,7 +3356,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4510</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3347,7 +3408,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3399,7 +3460,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4513</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3451,7 +3512,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4515</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3503,7 +3564,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4569</t>
+          <t>4569</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3555,7 +3616,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4570</t>
+          <t>4570</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3607,7 +3668,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4572</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3659,7 +3720,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4573</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3711,7 +3772,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4575</t>
+          <t>4575</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3763,7 +3824,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3815,7 +3876,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4578</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3867,7 +3928,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3919,7 +3980,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4604</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3971,7 +4032,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4610</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4023,7 +4084,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4612</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4063,7 +4124,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -4071,7 +4131,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4617</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4123,7 +4183,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4175,7 +4235,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4227,7 +4287,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4631</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4279,7 +4339,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4331,7 +4391,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4635</t>
+          <t>4635</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4383,7 +4443,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4435,7 +4495,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4487,7 +4547,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4527,7 +4587,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>08/12/2022</t>
@@ -4535,7 +4594,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4684</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4575,7 +4634,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -4583,7 +4641,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4702</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4635,7 +4693,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4703</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4687,7 +4745,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4705</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4739,7 +4797,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4706</t>
+          <t>4706</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4770,6 +4828,579 @@
       <c r="J84" t="inlineStr">
         <is>
           <t>63</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.67%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.92%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10.85%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13.24%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4617</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17.32%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.54%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.46%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.17%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4684</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4702</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.24%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4221.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4221.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1076,6 +1075,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -1487,6 +1487,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -1499,7 +1500,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1586,6 +1587,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>14/08/2016</t>
@@ -1633,6 +1635,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>16/08/2016</t>
@@ -4124,6 +4127,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -4587,6 +4591,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>08/12/2022</t>
@@ -4634,6 +4639,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>15/02/2023</t>
@@ -4828,579 +4834,6 @@
       <c r="J84" t="inlineStr">
         <is>
           <t>63</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.67%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.92%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.92%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>10.85%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4610</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.39%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4612</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13.24%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4617</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>17.32%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.54%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4631</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>33.46%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4635</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>9.09%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8.17%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4684</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4702</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4703</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.73%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4705</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.24%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4706</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
